--- a/日股信用模拟测算.xlsx
+++ b/日股信用模拟测算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="15915" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="测算日股" sheetId="4" r:id="rId1"/>
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -139,13 +139,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -162,76 +161,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,14 +183,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,11 +219,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -327,7 +327,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,7 +339,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,37 +363,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,7 +393,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,19 +483,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,79 +501,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,31 +564,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,6 +584,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -623,26 +632,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,10 +654,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,7 +666,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,124 +675,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,16 +1052,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>0.00656</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.00844</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.01312</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.01288</c:v>
+                  <c:v>-0.01868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1101,16 +1092,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-0.01476</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1150,16 +1132,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>-0.0170133333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.0105333333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.00729333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0114266666666667</c:v>
+                  <c:v>0.0261466666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1199,16 +1172,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>-0.0104533333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.0189733333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.0204133333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.00145333333333334</c:v>
+                  <c:v>-0.00729333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2273,8 +2237,8 @@
   <sheetPr/>
   <dimension ref="A1:Z121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.875" defaultRowHeight="18.75"/>
@@ -2386,51 +2350,53 @@
         <v>40</v>
       </c>
       <c r="D2" s="19">
-        <v>0.0164</v>
+        <v>-0.0467</v>
       </c>
       <c r="E2" s="3">
         <f>C2*D2</f>
-        <v>0.656</v>
+        <v>-1.868</v>
       </c>
       <c r="F2" s="3">
         <f>E2</f>
-        <v>0.656</v>
+        <v>-1.868</v>
       </c>
       <c r="G2" s="7">
         <f t="shared" ref="G2:G13" si="1">F2/$A$2</f>
-        <v>0.00656</v>
+        <v>-0.01868</v>
       </c>
       <c r="H2" s="3">
         <f t="shared" ref="H2:H13" si="2">$A$2*0.4</f>
         <v>40</v>
       </c>
-      <c r="I2" s="19"/>
+      <c r="I2" s="19">
+        <v>-0.0369</v>
+      </c>
       <c r="J2" s="3">
         <f>H2*I2</f>
-        <v>0</v>
+        <v>-1.476</v>
       </c>
       <c r="K2" s="3">
         <f>J2</f>
-        <v>0</v>
+        <v>-1.476</v>
       </c>
       <c r="L2" s="7">
         <f t="shared" ref="L2:L13" si="3">K2/$A$2</f>
-        <v>0</v>
+        <v>-0.01476</v>
       </c>
       <c r="M2" s="3">
         <f t="shared" ref="M2:M13" si="4">$A$2*0.4</f>
         <v>40</v>
       </c>
       <c r="N2" s="22">
-        <v>-0.0402</v>
+        <v>0.0677</v>
       </c>
       <c r="O2" s="3">
         <f>M2*N2</f>
-        <v>-1.608</v>
+        <v>2.708</v>
       </c>
       <c r="P2" s="3">
         <f>O2</f>
-        <v>-1.608</v>
+        <v>2.708</v>
       </c>
       <c r="Q2" s="3">
         <f t="shared" ref="Q2:Q13" si="5">M2*0.028/12</f>
@@ -2442,30 +2408,30 @@
       </c>
       <c r="S2" s="3">
         <f t="shared" ref="S2:S13" si="7">P2-Q2</f>
-        <v>-1.70133333333333</v>
+        <v>2.61466666666667</v>
       </c>
       <c r="T2" s="7">
         <f t="shared" ref="T2:T13" si="8">S2/$A$2</f>
-        <v>-0.0170133333333333</v>
+        <v>0.0261466666666667</v>
       </c>
       <c r="V2" s="3">
         <v>1</v>
       </c>
       <c r="W2" s="26">
         <f>G2</f>
-        <v>0.00656</v>
+        <v>-0.01868</v>
       </c>
       <c r="X2" s="26">
         <f>L2</f>
-        <v>0</v>
+        <v>-0.01476</v>
       </c>
       <c r="Y2" s="26">
         <f>T2</f>
-        <v>-0.0170133333333333</v>
+        <v>0.0261466666666667</v>
       </c>
       <c r="Z2" s="26">
         <f>SUM(W2:Y2)</f>
-        <v>-0.0104533333333333</v>
+        <v>-0.00729333333333333</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:26">
@@ -2477,34 +2443,20 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D3" s="19">
-        <v>-0.0211</v>
-      </c>
-      <c r="E3" s="3">
-        <f>C3*D3</f>
-        <v>-0.844</v>
-      </c>
-      <c r="F3" s="3">
-        <f>E3</f>
-        <v>-0.844</v>
-      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="7">
         <f t="shared" si="1"/>
-        <v>-0.00844</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="I3" s="19"/>
-      <c r="J3" s="3">
-        <f>H3*I3</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
-        <f>J3</f>
-        <v>0</v>
-      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
       <c r="L3" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2513,17 +2465,9 @@
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="N3" s="22">
-        <v>-0.024</v>
-      </c>
-      <c r="O3" s="3">
-        <f>M3*N3</f>
-        <v>-0.96</v>
-      </c>
-      <c r="P3" s="3">
-        <f>O3</f>
-        <v>-0.96</v>
-      </c>
+      <c r="N3" s="22"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
       <c r="Q3" s="3">
         <f t="shared" si="5"/>
         <v>0.0933333333333333</v>
@@ -2534,31 +2478,19 @@
       </c>
       <c r="S3" s="3">
         <f t="shared" si="7"/>
-        <v>-1.05333333333333</v>
+        <v>-0.0933333333333333</v>
       </c>
       <c r="T3" s="7">
         <f t="shared" si="8"/>
-        <v>-0.0105333333333333</v>
+        <v>-0.000933333333333333</v>
       </c>
       <c r="V3" s="3">
         <v>2</v>
       </c>
-      <c r="W3" s="26">
-        <f>G3</f>
-        <v>-0.00844</v>
-      </c>
-      <c r="X3" s="26">
-        <f>L3</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="26">
-        <f>T3</f>
-        <v>-0.0105333333333333</v>
-      </c>
-      <c r="Z3" s="26">
-        <f>SUM(W3:Y3)</f>
-        <v>-0.0189733333333333</v>
-      </c>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:26">
       <c r="A4" s="6"/>
@@ -2569,34 +2501,20 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D4" s="19">
-        <v>-0.0328</v>
-      </c>
-      <c r="E4" s="3">
-        <f>C4*D4</f>
-        <v>-1.312</v>
-      </c>
-      <c r="F4" s="3">
-        <f>E4</f>
-        <v>-1.312</v>
-      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="7">
         <f t="shared" si="1"/>
-        <v>-0.01312</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="I4" s="19"/>
-      <c r="J4" s="3">
-        <f>H4*I4</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <f>J4</f>
-        <v>0</v>
-      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
       <c r="L4" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2605,17 +2523,9 @@
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="N4" s="22">
-        <v>-0.0159</v>
-      </c>
-      <c r="O4" s="3">
-        <f>M4*N4</f>
-        <v>-0.636</v>
-      </c>
-      <c r="P4" s="3">
-        <f>O4</f>
-        <v>-0.636</v>
-      </c>
+      <c r="N4" s="22"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
       <c r="Q4" s="3">
         <f t="shared" si="5"/>
         <v>0.0933333333333333</v>
@@ -2626,31 +2536,19 @@
       </c>
       <c r="S4" s="3">
         <f t="shared" si="7"/>
-        <v>-0.729333333333333</v>
+        <v>-0.0933333333333333</v>
       </c>
       <c r="T4" s="7">
         <f t="shared" si="8"/>
-        <v>-0.00729333333333333</v>
+        <v>-0.000933333333333333</v>
       </c>
       <c r="V4" s="3">
         <v>3</v>
       </c>
-      <c r="W4" s="26">
-        <f>G4</f>
-        <v>-0.01312</v>
-      </c>
-      <c r="X4" s="26">
-        <f>L4</f>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="26">
-        <f>T4</f>
-        <v>-0.00729333333333333</v>
-      </c>
-      <c r="Z4" s="26">
-        <f>SUM(W4:Y4)</f>
-        <v>-0.0204133333333333</v>
-      </c>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:26">
       <c r="A5" s="6"/>
@@ -2661,34 +2559,20 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D5" s="19">
-        <v>-0.0322</v>
-      </c>
-      <c r="E5" s="3">
-        <f>C5*D5</f>
-        <v>-1.288</v>
-      </c>
-      <c r="F5" s="3">
-        <f>E5</f>
-        <v>-1.288</v>
-      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="7">
         <f t="shared" si="1"/>
-        <v>-0.01288</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="I5" s="19"/>
-      <c r="J5" s="3">
-        <f>H5*I5</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <f>J5</f>
-        <v>0</v>
-      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
       <c r="L5" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2697,17 +2581,9 @@
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="N5" s="22">
-        <v>0.0309</v>
-      </c>
-      <c r="O5" s="3">
-        <f>M5*N5</f>
-        <v>1.236</v>
-      </c>
-      <c r="P5" s="3">
-        <f>O5</f>
-        <v>1.236</v>
-      </c>
+      <c r="N5" s="22"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
       <c r="Q5" s="3">
         <f t="shared" si="5"/>
         <v>0.0933333333333333</v>
@@ -2718,31 +2594,19 @@
       </c>
       <c r="S5" s="3">
         <f t="shared" si="7"/>
-        <v>1.14266666666667</v>
+        <v>-0.0933333333333333</v>
       </c>
       <c r="T5" s="7">
         <f t="shared" si="8"/>
-        <v>0.0114266666666667</v>
+        <v>-0.000933333333333333</v>
       </c>
       <c r="V5" s="3">
         <v>4</v>
       </c>
-      <c r="W5" s="26">
-        <f>G5</f>
-        <v>-0.01288</v>
-      </c>
-      <c r="X5" s="26">
-        <f>L5</f>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="26">
-        <f>T5</f>
-        <v>0.0114266666666667</v>
-      </c>
-      <c r="Z5" s="26">
-        <f>SUM(W5:Y5)</f>
-        <v>-0.00145333333333334</v>
-      </c>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:26">
       <c r="A6" s="6"/>
@@ -2754,6 +2618,8 @@
         <v>40</v>
       </c>
       <c r="D6" s="19"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2763,6 +2629,8 @@
         <v>40</v>
       </c>
       <c r="I6" s="19"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
       <c r="L6" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2772,6 +2640,8 @@
         <v>40</v>
       </c>
       <c r="N6" s="22"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
       <c r="Q6" s="3">
         <f t="shared" si="5"/>
         <v>0.0933333333333333</v>
@@ -2791,10 +2661,10 @@
       <c r="V6" s="3">
         <v>5</v>
       </c>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:26">
       <c r="A7" s="6"/>
@@ -3955,12 +3825,65 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D2:D250">
-    <cfRule type="cellIs" dxfId="0" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="43" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D13">
+    <cfRule type="cellIs" dxfId="0" priority="45" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="44" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D308">
+    <cfRule type="cellIs" dxfId="0" priority="42" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="41" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N98">
+    <cfRule type="cellIs" dxfId="0" priority="33" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -3968,7 +3891,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D13">
+  <conditionalFormatting sqref="N2:N13">
     <cfRule type="cellIs" dxfId="0" priority="35" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -3976,10 +3899,15 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I243">
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="greaterThan">
+  <conditionalFormatting sqref="W2:W13">
+    <cfRule type="cellIs" dxfId="0" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="29" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:W308">
     <cfRule type="cellIs" dxfId="0" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -3987,15 +3915,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I13">
-    <cfRule type="cellIs" dxfId="0" priority="30" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="29" operator="lessThan">
+  <conditionalFormatting sqref="W2:W250">
+    <cfRule type="cellIs" dxfId="0" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N98">
+  <conditionalFormatting sqref="X2:X243">
     <cfRule type="cellIs" dxfId="0" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -4006,7 +3931,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N13">
+  <conditionalFormatting sqref="X2:X13">
     <cfRule type="cellIs" dxfId="0" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -4014,7 +3939,18 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W13">
+  <conditionalFormatting sqref="Y2:Y243">
+    <cfRule type="cellIs" dxfId="0" priority="18" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="17" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="16" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:Y13">
     <cfRule type="cellIs" dxfId="0" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -4022,20 +3958,15 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W308">
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="greaterThan">
+  <conditionalFormatting sqref="Z2:Z13">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W250">
-    <cfRule type="cellIs" dxfId="0" priority="18" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X243">
+  <conditionalFormatting sqref="Z2:Z243">
     <cfRule type="cellIs" dxfId="0" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -4046,49 +3977,22 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X13">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="greaterThan">
+  <conditionalFormatting sqref="I3:I9 I11:I243">
+    <cfRule type="cellIs" dxfId="1" priority="36" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="37" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y243">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="I3:I9 I11:I13">
+    <cfRule type="cellIs" dxfId="1" priority="39" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y13">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z243">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z13">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
